--- a/biology/Neurosciences/Fuseau_neuromusculaire/Fuseau_neuromusculaire.xlsx
+++ b/biology/Neurosciences/Fuseau_neuromusculaire/Fuseau_neuromusculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fuseau neuromusculaire (FNM) est un mécanorécepteur constitué de fibres musculaires modifiées. Disposé parallèlement aux fibres du muscle, il est sensible à l'allongement de celui-ci, et traduit un stimulus mécanique en un message nerveux.  
 </t>
@@ -511,7 +523,9 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces fuseaux sont des récepteurs sensoriels. Ils jouent donc un rôle important dans la proprioception statique, ainsi que dans la kinesthésie.
 Ils sont également impliqués dans le réflexe myotatique : leur rôle est alors d'augmenter le niveau de contraction du muscle en réponse à son propre étirement. Le muscle tend à revenir à sa longueur initiale.
@@ -544,7 +558,9 @@
           <t>Constitution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque fuseau est constitué de fibres intrafusales dont la partie polaire (partie aux extrémités des fibres musculaires) est contractile et dont le centre (partie équatoriale) ne l'est pas. L'ensemble est enveloppé dans une capsule de tissu conjonctif. Le FNM reçoit une innervation motrice par l'intermédiaire du motoneurone gamma, et une innervation sensitive par les fibres de type I et II.
 </t>
@@ -575,7 +591,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux types de fibres sont présentes dans un fuseau neuromusculaire : les fibres I, qui sont très sollicitées lorsque le muscle est étiré, puis reviennent à un état de repos ; et les fibres II, pour lesquelles l'activité dépend de l'état d'étirement du muscle (plus le muscle est étiré, plus les potentiels d'action sont rapprochés).
 Le fuseau neuromusculaire est donc capable de renseigner le corps à la fois sur la position du muscle et sur son mouvement relatif.
@@ -607,9 +625,11 @@
           <t>Innervation sensitive</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est constitué de fibres intrafusales musculaires à sac et à chaîne ; les fibres musculaires intrafusales primaires (ou à sac nucléaire) sont innervées par les terminaisons primaires (Fibres Ia à conduction rapide 70 à 120 m.s-1), tandis que les fibres intrafusales secondaires (ou à chaîne nucléaire) sont innervées, en leur centre, par les terminaisons des fibres nerveuses primaires (Fibres Ia) et, de part et d'autre de la région centrale, par les fibres nerveuses secondaires (Fibres II à conduction lente 36 à 72 m.s-1)[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est constitué de fibres intrafusales musculaires à sac et à chaîne ; les fibres musculaires intrafusales primaires (ou à sac nucléaire) sont innervées par les terminaisons primaires (Fibres Ia à conduction rapide 70 à 120 m.s-1), tandis que les fibres intrafusales secondaires (ou à chaîne nucléaire) sont innervées, en leur centre, par les terminaisons des fibres nerveuses primaires (Fibres Ia) et, de part et d'autre de la région centrale, par les fibres nerveuses secondaires (Fibres II à conduction lente 36 à 72 m.s-1).
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Innervation motrice</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fibres intrafusales sont innervées par des motoneurones gamma. Le rôle des motoneurones gamma est d'étirer les fibres du fuseau via de petits muscles situés aux extrémités du fuseau. Lorsque la longueur du fuseau neuromusculaire est modifiée, l'afférence sensorielle provenant du fuseau neuromusculaire est modifiée. Le rôle des motoneurones gamma est donc de maintenir une tension constante au niveau du fuseau neuromusculaire malgré l'étirement ou la contraction musculaire volontaire. Les afférences proprioceptives provenant du fuseau sont ainsi maintenues constantes en l'absence de perturbations involontaires. 
 En effet le fuseau neuromusculaire doit être tendu en permanence à une valeur constante. C'est la variation de cette valeur de consigne que vont capter les mécanorécepteurs I et II. Cette tension doit être constante à l'étirement comme à la contraction. Le but du motoneurone gamma est de ramener le fuseau neuromusculaire à sa tension, son étirement, sa longueur de consigne : soit, lorsque celui-ci est comprimé, il l'étire, et lorsque celui-ci est étiré, il le contracte.
@@ -672,7 +694,9 @@
           <t>Rappels</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les cornes antérieures de la moelle épinière sont motrices (émettent des efférences) et les cornes postérieures sont sensitives (reçoivent des afférences).
 La corne antérieure émet des fibres gamma (fusimotrices), des fibres alpha (extrafusales) et des fibres bêta (mixtes).
